--- a/Code/Results/Cases/Case_1_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.506955822792918</v>
+        <v>1.277791050588093</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1117454695333038</v>
+        <v>0.2294187233413965</v>
       </c>
       <c r="E2">
-        <v>0.1807898378144266</v>
+        <v>0.2504832339759027</v>
       </c>
       <c r="F2">
-        <v>0.8343549539339108</v>
+        <v>1.477857911800015</v>
       </c>
       <c r="G2">
-        <v>0.0007873148323439184</v>
+        <v>0.002449362423981744</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2982176286341485</v>
+        <v>0.3308574286622985</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6764034517506587</v>
+        <v>0.3048730014661629</v>
       </c>
       <c r="M2">
-        <v>0.4948675596192942</v>
+        <v>0.320277874890003</v>
       </c>
       <c r="N2">
-        <v>1.256577106806162</v>
+        <v>1.854056015280008</v>
       </c>
       <c r="O2">
-        <v>2.558484145820188</v>
+        <v>3.607955291981369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.329645729833544</v>
+        <v>1.231078397773757</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1105832242574394</v>
+        <v>0.2294926430559698</v>
       </c>
       <c r="E3">
-        <v>0.1743138169798613</v>
+        <v>0.2487000765755418</v>
       </c>
       <c r="F3">
-        <v>0.7864504049187744</v>
+        <v>1.478008731710467</v>
       </c>
       <c r="G3">
-        <v>0.0007921363192450545</v>
+        <v>0.00245269181224168</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2834170170491959</v>
+        <v>0.326332659866182</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5883224704235346</v>
+        <v>0.2787639667401862</v>
       </c>
       <c r="M3">
-        <v>0.4326637497005876</v>
+        <v>0.3028187283928432</v>
       </c>
       <c r="N3">
-        <v>1.261066991025459</v>
+        <v>1.860525384613396</v>
       </c>
       <c r="O3">
-        <v>2.353553825411979</v>
+        <v>3.585789942055442</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.2214353588314</v>
+        <v>1.202804816984496</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1099051540554399</v>
+        <v>0.229561043579448</v>
       </c>
       <c r="E4">
-        <v>0.1703635185993946</v>
+        <v>0.2476218287037426</v>
       </c>
       <c r="F4">
-        <v>0.7586966535257176</v>
+        <v>1.478956922603338</v>
       </c>
       <c r="G4">
-        <v>0.0007951981546439033</v>
+        <v>0.002454847845837984</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2743521395351678</v>
+        <v>0.3235682811492779</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5343185170098792</v>
+        <v>0.2627520603419384</v>
       </c>
       <c r="M4">
-        <v>0.3946087829883069</v>
+        <v>0.2921738771505815</v>
       </c>
       <c r="N4">
-        <v>1.265135448207189</v>
+        <v>1.865177161379066</v>
       </c>
       <c r="O4">
-        <v>2.232568266897516</v>
+        <v>3.574437087433637</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.177486948382239</v>
+        <v>1.191386723882232</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1096374482213491</v>
+        <v>0.229594729831593</v>
       </c>
       <c r="E5">
-        <v>0.1687600029559349</v>
+        <v>0.2471866833957357</v>
       </c>
       <c r="F5">
-        <v>0.7477799341774372</v>
+        <v>1.479558405925651</v>
       </c>
       <c r="G5">
-        <v>0.0007964718818786307</v>
+        <v>0.002455754639666295</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.270663448005692</v>
+        <v>0.3224453980770718</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5123242383607192</v>
+        <v>0.256232337685617</v>
       </c>
       <c r="M5">
-        <v>0.3791303819024563</v>
+        <v>0.2878552307457767</v>
       </c>
       <c r="N5">
-        <v>1.267114870282136</v>
+        <v>1.867244117459428</v>
       </c>
       <c r="O5">
-        <v>2.184400577818195</v>
+        <v>3.570377813953542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.170197808344938</v>
+        <v>1.189497045579714</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1095935071539103</v>
+        <v>0.2296006752208015</v>
       </c>
       <c r="E6">
-        <v>0.168494111250709</v>
+        <v>0.2471146865872775</v>
       </c>
       <c r="F6">
-        <v>0.7459902831208041</v>
+        <v>1.479671270933252</v>
       </c>
       <c r="G6">
-        <v>0.0007966849681746873</v>
+        <v>0.002455906917604683</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2700512541124169</v>
+        <v>0.3222591672293831</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5086726845623417</v>
+        <v>0.2551500734601859</v>
       </c>
       <c r="M6">
-        <v>0.3765618210490658</v>
+        <v>0.2871392929925989</v>
       </c>
       <c r="N6">
-        <v>1.267462734130426</v>
+        <v>1.867597694229786</v>
       </c>
       <c r="O6">
-        <v>2.176468580699293</v>
+        <v>3.569738015729371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.220842077486509</v>
+        <v>1.202650407731539</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1099015092144171</v>
+        <v>0.2295614743142522</v>
       </c>
       <c r="E7">
-        <v>0.1703418680082898</v>
+        <v>0.2476159428815983</v>
       </c>
       <c r="F7">
-        <v>0.7585478660224965</v>
+        <v>1.478964163612744</v>
       </c>
       <c r="G7">
-        <v>0.00079521522664297</v>
+        <v>0.002454859960902218</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2743023715069839</v>
+        <v>0.3235531226946051</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5340218515122217</v>
+        <v>0.2626641111977648</v>
       </c>
       <c r="M7">
-        <v>0.3943999242167777</v>
+        <v>0.292115556137496</v>
       </c>
       <c r="N7">
-        <v>1.265160852350064</v>
+        <v>1.865204342820618</v>
       </c>
       <c r="O7">
-        <v>2.231914171513779</v>
+        <v>3.574380046961267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.445671702882578</v>
+        <v>1.261600382070725</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.111337140651937</v>
+        <v>0.2294394495811716</v>
       </c>
       <c r="E8">
-        <v>0.1785513296164112</v>
+        <v>0.2498649939759083</v>
       </c>
       <c r="F8">
-        <v>0.817477973854281</v>
+        <v>1.477732299063987</v>
       </c>
       <c r="G8">
-        <v>0.000788956540102822</v>
+        <v>0.002450487250014621</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2931093906160953</v>
+        <v>0.3292944976780134</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6460126027375566</v>
+        <v>0.2958668906911015</v>
       </c>
       <c r="M8">
-        <v>0.4733875186148637</v>
+        <v>0.3142425548969427</v>
       </c>
       <c r="N8">
-        <v>1.257847828155548</v>
+        <v>1.856145871010455</v>
       </c>
       <c r="O8">
-        <v>2.486767813047464</v>
+        <v>3.599844045975232</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.892650283749248</v>
+        <v>1.380403390024441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1144513173038</v>
+        <v>0.2293816863194813</v>
       </c>
       <c r="E9">
-        <v>0.1948716187101134</v>
+        <v>0.2544043765283241</v>
       </c>
       <c r="F9">
-        <v>0.9473744920941982</v>
+        <v>1.482109933214744</v>
       </c>
       <c r="G9">
-        <v>0.0007774639890396118</v>
+        <v>0.002442795344279138</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3301934813677434</v>
+        <v>0.3406575440912363</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8665914897864297</v>
+        <v>0.3611130683476063</v>
       </c>
       <c r="M9">
-        <v>0.629653823445949</v>
+        <v>0.3582178016231126</v>
       </c>
       <c r="N9">
-        <v>1.254314044064941</v>
+        <v>1.843756052973376</v>
       </c>
       <c r="O9">
-        <v>3.028951572489262</v>
+        <v>3.667710197710733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.226069546852102</v>
+        <v>1.469601087480441</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1169484426426237</v>
+        <v>0.2294485358393601</v>
       </c>
       <c r="E10">
-        <v>0.2070228928015929</v>
+        <v>0.2578146335845872</v>
       </c>
       <c r="F10">
-        <v>1.053283493485097</v>
+        <v>1.489476958424262</v>
       </c>
       <c r="G10">
-        <v>0.0007694606562871876</v>
+        <v>0.002437676899234479</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3576029244081269</v>
+        <v>0.3490627681119207</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.029775037762306</v>
+        <v>0.4091150060211817</v>
       </c>
       <c r="M10">
-        <v>0.7457187470024067</v>
+        <v>0.3908700307144102</v>
       </c>
       <c r="N10">
-        <v>1.258897708339646</v>
+        <v>1.837906484938273</v>
       </c>
       <c r="O10">
-        <v>3.459122756044906</v>
+        <v>3.728549096719632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.379158681936929</v>
+        <v>1.510587200653163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1181369190390562</v>
+        <v>0.2295023936507903</v>
       </c>
       <c r="E11">
-        <v>0.2125925556901116</v>
+        <v>0.2593816595475147</v>
       </c>
       <c r="F11">
-        <v>1.104155679714722</v>
+        <v>1.493731939622222</v>
       </c>
       <c r="G11">
-        <v>0.0007659068339401446</v>
+        <v>0.002435462912645148</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3701182511482983</v>
+        <v>0.3528974780366525</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.104387342445477</v>
+        <v>0.4309632447030936</v>
       </c>
       <c r="M11">
-        <v>0.7988945836403545</v>
+        <v>0.4057965412202265</v>
       </c>
       <c r="N11">
-        <v>1.262682762197855</v>
+        <v>1.83594717148172</v>
       </c>
       <c r="O11">
-        <v>3.663170742679256</v>
+        <v>3.758620678027341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.437361032740966</v>
+        <v>1.526165626217733</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1185951965762051</v>
+        <v>0.2295261355085252</v>
       </c>
       <c r="E12">
-        <v>0.2147083151893909</v>
+        <v>0.2599772396323452</v>
       </c>
       <c r="F12">
-        <v>1.123844622356799</v>
+        <v>1.495473266207881</v>
       </c>
       <c r="G12">
-        <v>0.0007645728422094746</v>
+        <v>0.002434640898434953</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3748651344854892</v>
+        <v>0.3543510504292726</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.13270737089158</v>
+        <v>0.4392379326511104</v>
       </c>
       <c r="M12">
-        <v>0.8190942005785331</v>
+        <v>0.4114590175959094</v>
       </c>
       <c r="N12">
-        <v>1.264373093704506</v>
+        <v>1.835305744784677</v>
       </c>
       <c r="O12">
-        <v>3.741770948122962</v>
+        <v>3.770353132234504</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.424815390671142</v>
+        <v>1.5228079759558</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1184961206688797</v>
+        <v>0.2295208738037999</v>
       </c>
       <c r="E13">
-        <v>0.2142523421317044</v>
+        <v>0.2598488749611363</v>
       </c>
       <c r="F13">
-        <v>1.119584737930779</v>
+        <v>1.495092454293129</v>
       </c>
       <c r="G13">
-        <v>0.0007648596303865781</v>
+        <v>0.002434817206939866</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3738424545839365</v>
+        <v>0.3540379354535474</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.126605018833317</v>
+        <v>0.4374557832782671</v>
       </c>
       <c r="M13">
-        <v>0.8147408975267538</v>
+        <v>0.4102390569003944</v>
       </c>
       <c r="N13">
-        <v>1.263997410683757</v>
+        <v>1.835439422673545</v>
       </c>
       <c r="O13">
-        <v>3.724781587752602</v>
+        <v>3.767810986323354</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.383942234049982</v>
+        <v>1.511867693112322</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1181744527291144</v>
+        <v>0.2295042799681042</v>
       </c>
       <c r="E14">
-        <v>0.212766483426833</v>
+        <v>0.2594306149837706</v>
       </c>
       <c r="F14">
-        <v>1.105766763413413</v>
+        <v>1.493872592438223</v>
       </c>
       <c r="G14">
-        <v>0.0007657968542338575</v>
+        <v>0.002435394957455548</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3705086221941656</v>
+        <v>0.3530170360889144</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.106715856920175</v>
+        <v>0.4316439862677726</v>
       </c>
       <c r="M14">
-        <v>0.8005551008165384</v>
+        <v>0.4062621954938237</v>
       </c>
       <c r="N14">
-        <v>1.262816600863445</v>
+        <v>1.835892388437486</v>
       </c>
       <c r="O14">
-        <v>3.669609761587765</v>
+        <v>3.759578996906555</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.358937153292516</v>
+        <v>1.505173960340471</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1179785148454471</v>
+        <v>0.2294945509237678</v>
       </c>
       <c r="E15">
-        <v>0.2118572375977905</v>
+        <v>0.2591747005616796</v>
       </c>
       <c r="F15">
-        <v>1.09735933068653</v>
+        <v>1.493142332391216</v>
       </c>
       <c r="G15">
-        <v>0.0007663724401460868</v>
+        <v>0.00243575097622882</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3684675721209771</v>
+        <v>0.3523918902736796</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.094542119016637</v>
+        <v>0.4280842393029332</v>
       </c>
       <c r="M15">
-        <v>0.7918743804609036</v>
+        <v>0.4038275621702709</v>
       </c>
       <c r="N15">
-        <v>1.262127178873001</v>
+        <v>1.836182922969158</v>
       </c>
       <c r="O15">
-        <v>3.635992866560059</v>
+        <v>3.754581609754496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.216095573851987</v>
+        <v>1.466930703285243</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1168718854333264</v>
+        <v>0.2294454858180259</v>
       </c>
       <c r="E16">
-        <v>0.2066597974323656</v>
+        <v>0.2577125340168394</v>
       </c>
       <c r="F16">
-        <v>1.050016210803179</v>
+        <v>1.489217079140218</v>
       </c>
       <c r="G16">
-        <v>0.0007696945944830613</v>
+        <v>0.00243782388439306</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3567860304547708</v>
+        <v>0.3488123719831862</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.024907533616613</v>
+        <v>0.4076873710119457</v>
       </c>
       <c r="M16">
-        <v>0.7422519111178758</v>
+        <v>0.3898959845494829</v>
       </c>
       <c r="N16">
-        <v>1.258685608264273</v>
+        <v>1.838048617836719</v>
       </c>
       <c r="O16">
-        <v>3.445966805479941</v>
+        <v>3.726632098235427</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.128848095277647</v>
+        <v>1.443573886362287</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.11620690856331</v>
+        <v>0.2294213738522224</v>
       </c>
       <c r="E17">
-        <v>0.2034824985342141</v>
+        <v>0.2568195063665399</v>
       </c>
       <c r="F17">
-        <v>1.021688354613374</v>
+        <v>1.487040596113701</v>
       </c>
       <c r="G17">
-        <v>0.0007717543869218968</v>
+        <v>0.002439124795265297</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3496323254212115</v>
+        <v>0.3466191977916111</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9822939228361918</v>
+        <v>0.3951772634533768</v>
       </c>
       <c r="M17">
-        <v>0.7119128219265534</v>
+        <v>0.3813678254535731</v>
       </c>
       <c r="N17">
-        <v>1.257018388134611</v>
+        <v>1.839372607743911</v>
       </c>
       <c r="O17">
-        <v>3.331622212620658</v>
+        <v>3.710099924547904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.078797082524716</v>
+        <v>1.430178281068208</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1158293296037414</v>
+        <v>0.2294097137534017</v>
       </c>
       <c r="E18">
-        <v>0.2016589108351567</v>
+        <v>0.2563073410321905</v>
       </c>
       <c r="F18">
-        <v>1.00564605375736</v>
+        <v>1.48587379318559</v>
       </c>
       <c r="G18">
-        <v>0.0007729473548974632</v>
+        <v>0.002439883819441681</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3455220322676098</v>
+        <v>0.3453587986622608</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.957818657843859</v>
+        <v>0.3879829306656859</v>
       </c>
       <c r="M18">
-        <v>0.6944975246812177</v>
+        <v>0.3764695312101622</v>
       </c>
       <c r="N18">
-        <v>1.256218651024994</v>
+        <v>1.840200199735762</v>
       </c>
       <c r="O18">
-        <v>3.26663285932122</v>
+        <v>3.700816516207396</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.061872444631888</v>
+        <v>1.425649423427956</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1157023099956476</v>
+        <v>0.2294061459048926</v>
       </c>
       <c r="E19">
-        <v>0.2010421297770399</v>
+        <v>0.2561341871891258</v>
       </c>
       <c r="F19">
-        <v>1.000256446021524</v>
+        <v>1.485493338308174</v>
       </c>
       <c r="G19">
-        <v>0.0007733527083858549</v>
+        <v>0.002440142664883469</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3441310758217</v>
+        <v>0.344932235224114</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9495374261502718</v>
+        <v>0.3855472653812342</v>
       </c>
       <c r="M19">
-        <v>0.6886067491084447</v>
+        <v>0.3748122446456037</v>
       </c>
       <c r="N19">
-        <v>1.255974847761976</v>
+        <v>1.840491767066908</v>
       </c>
       <c r="O19">
-        <v>3.244758538466328</v>
+        <v>3.697712021341374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.138121944713362</v>
+        <v>1.446056270048871</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.11627718494303</v>
+        <v>0.2294237122237739</v>
       </c>
       <c r="E20">
-        <v>0.2038203185393748</v>
+        <v>0.25691441798919</v>
       </c>
       <c r="F20">
-        <v>1.0246776503013</v>
+        <v>1.487263483037083</v>
       </c>
       <c r="G20">
-        <v>0.0007715342718332885</v>
+        <v>0.002438985196666802</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3503933954319649</v>
+        <v>0.3468525566545821</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9868265170814539</v>
+        <v>0.3965088701958166</v>
       </c>
       <c r="M20">
-        <v>0.7151387915842449</v>
+        <v>0.3822749532715761</v>
       </c>
       <c r="N20">
-        <v>1.257179301191414</v>
+        <v>1.839224831729766</v>
       </c>
       <c r="O20">
-        <v>3.343712900336584</v>
+        <v>3.71183646464732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.395941177859356</v>
+        <v>1.515079556895216</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.118268705280947</v>
+        <v>0.2295090633364367</v>
       </c>
       <c r="E21">
-        <v>0.2132027303856283</v>
+        <v>0.2595534094634573</v>
       </c>
       <c r="F21">
-        <v>1.109813597024882</v>
+        <v>1.494227364842757</v>
       </c>
       <c r="G21">
-        <v>0.0007655212557414748</v>
+        <v>0.002435224814378677</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3714876355430619</v>
+        <v>0.3533168607912245</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.112555899229761</v>
+        <v>0.4333510222495534</v>
       </c>
       <c r="M21">
-        <v>0.8047200271100294</v>
+        <v>0.4074300238841388</v>
       </c>
       <c r="N21">
-        <v>1.263156353710613</v>
+        <v>1.835756616234193</v>
       </c>
       <c r="O21">
-        <v>3.685777839677087</v>
+        <v>3.761987564540732</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.565800627267549</v>
+        <v>1.560527122756127</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1196186154093724</v>
+        <v>0.2295843432172084</v>
       </c>
       <c r="E22">
-        <v>0.2193737834839737</v>
+        <v>0.2612908235117324</v>
       </c>
       <c r="F22">
-        <v>1.167950174835795</v>
+        <v>1.499536789636963</v>
       </c>
       <c r="G22">
-        <v>0.0007616595873568677</v>
+        <v>0.00243286259396641</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3853187520511625</v>
+        <v>0.3575500454438583</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.195117911130438</v>
+        <v>0.4574364704004097</v>
       </c>
       <c r="M22">
-        <v>0.8636388781633713</v>
+        <v>0.4239292074965348</v>
       </c>
       <c r="N22">
-        <v>1.268567222445824</v>
+        <v>1.834075690064466</v>
       </c>
       <c r="O22">
-        <v>3.917166856728045</v>
+        <v>3.796775360180447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.475009419363971</v>
+        <v>1.536240418841089</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1188934727427693</v>
+        <v>0.2295423889595121</v>
       </c>
       <c r="E23">
-        <v>0.216076372830873</v>
+        <v>0.2603623969892048</v>
       </c>
       <c r="F23">
-        <v>1.136680119240907</v>
+        <v>1.496633645210764</v>
       </c>
       <c r="G23">
-        <v>0.0007637146518985061</v>
+        <v>0.002434114651487641</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3779323954836684</v>
+        <v>0.3552899969467376</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.151013216412679</v>
+        <v>0.4445811335193355</v>
       </c>
       <c r="M23">
-        <v>0.8321555952781097</v>
+        <v>0.4151180077849119</v>
       </c>
       <c r="N23">
-        <v>1.265537301690941</v>
+        <v>1.834919358761681</v>
       </c>
       <c r="O23">
-        <v>3.792908191154027</v>
+        <v>3.778024271301376</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.133928900770002</v>
+        <v>1.44493388294228</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1162453983238372</v>
+        <v>0.2294226481856221</v>
       </c>
       <c r="E24">
-        <v>0.2036675805548498</v>
+        <v>0.256871504552219</v>
       </c>
       <c r="F24">
-        <v>1.023325433252353</v>
+        <v>1.487162452694434</v>
       </c>
       <c r="G24">
-        <v>0.0007716337584832989</v>
+        <v>0.002439048274495159</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3500493080614007</v>
+        <v>0.3467470535890271</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9847772577319631</v>
+        <v>0.3959068573095408</v>
       </c>
       <c r="M24">
-        <v>0.7136802471074262</v>
+        <v>0.3818648262488082</v>
       </c>
       <c r="N24">
-        <v>1.257106058806102</v>
+        <v>1.839291434364014</v>
       </c>
       <c r="O24">
-        <v>3.338244377491122</v>
+        <v>3.711050685999538</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.770949085055463</v>
+        <v>1.347925252702538</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1135742750507518</v>
+        <v>0.2293780219623507</v>
       </c>
       <c r="E25">
-        <v>0.1904303783476635</v>
+        <v>0.2531629024101001</v>
       </c>
       <c r="F25">
-        <v>0.910527614315896</v>
+        <v>1.480197426433776</v>
       </c>
       <c r="G25">
-        <v>0.0007804929985059106</v>
+        <v>0.00244478224975839</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3201356644284559</v>
+        <v>0.337573079700654</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8067630523117373</v>
+        <v>0.3434495032098255</v>
       </c>
       <c r="M25">
-        <v>0.5871913615042885</v>
+        <v>0.3462600856176365</v>
       </c>
       <c r="N25">
-        <v>1.254054306438604</v>
+        <v>1.846534907831369</v>
       </c>
       <c r="O25">
-        <v>2.877145226621479</v>
+        <v>3.647426157327487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.277791050588093</v>
+        <v>1.506955822792918</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2294187233413965</v>
+        <v>0.1117454695333073</v>
       </c>
       <c r="E2">
-        <v>0.2504832339759027</v>
+        <v>0.1807898378144621</v>
       </c>
       <c r="F2">
-        <v>1.477857911800015</v>
+        <v>0.834354953933925</v>
       </c>
       <c r="G2">
-        <v>0.002449362423981744</v>
+        <v>0.0007873148323753246</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3308574286622985</v>
+        <v>0.2982176286342835</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3048730014661629</v>
+        <v>0.6764034517506019</v>
       </c>
       <c r="M2">
-        <v>0.320277874890003</v>
+        <v>0.4948675596192942</v>
       </c>
       <c r="N2">
-        <v>1.854056015280008</v>
+        <v>1.256577106806105</v>
       </c>
       <c r="O2">
-        <v>3.607955291981369</v>
+        <v>2.558484145820188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.231078397773757</v>
+        <v>1.329645729833544</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2294926430559698</v>
+        <v>0.110583224257379</v>
       </c>
       <c r="E3">
-        <v>0.2487000765755418</v>
+        <v>0.1743138169798435</v>
       </c>
       <c r="F3">
-        <v>1.478008731710467</v>
+        <v>0.7864504049187744</v>
       </c>
       <c r="G3">
-        <v>0.00245269181224168</v>
+        <v>0.0007921363192452939</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.326332659866182</v>
+        <v>0.2834170170492882</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2787639667401862</v>
+        <v>0.5883224704236198</v>
       </c>
       <c r="M3">
-        <v>0.3028187283928432</v>
+        <v>0.4326637497005663</v>
       </c>
       <c r="N3">
-        <v>1.860525384613396</v>
+        <v>1.26106699102553</v>
       </c>
       <c r="O3">
-        <v>3.585789942055442</v>
+        <v>2.353553825411979</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.202804816984496</v>
+        <v>1.221435358831371</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.229561043579448</v>
+        <v>0.1099051540553226</v>
       </c>
       <c r="E4">
-        <v>0.2476218287037426</v>
+        <v>0.170363518599391</v>
       </c>
       <c r="F4">
-        <v>1.478956922603338</v>
+        <v>0.7586966535257176</v>
       </c>
       <c r="G4">
-        <v>0.002454847845837984</v>
+        <v>0.0007951981546711181</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3235682811492779</v>
+        <v>0.2743521395351891</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2627520603419384</v>
+        <v>0.5343185170098508</v>
       </c>
       <c r="M4">
-        <v>0.2921738771505815</v>
+        <v>0.394608782988314</v>
       </c>
       <c r="N4">
-        <v>1.865177161379066</v>
+        <v>1.265135448207175</v>
       </c>
       <c r="O4">
-        <v>3.574437087433637</v>
+        <v>2.232568266897459</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.191386723882232</v>
+        <v>1.177486948382352</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.229594729831593</v>
+        <v>0.1096374482213491</v>
       </c>
       <c r="E5">
-        <v>0.2471866833957357</v>
+        <v>0.168760002955942</v>
       </c>
       <c r="F5">
-        <v>1.479558405925651</v>
+        <v>0.7477799341774372</v>
       </c>
       <c r="G5">
-        <v>0.002455754639666295</v>
+        <v>0.0007964718819078771</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3224453980770718</v>
+        <v>0.2706634480055854</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.256232337685617</v>
+        <v>0.5123242383608613</v>
       </c>
       <c r="M5">
-        <v>0.2878552307457767</v>
+        <v>0.3791303819024705</v>
       </c>
       <c r="N5">
-        <v>1.867244117459428</v>
+        <v>1.267114870282164</v>
       </c>
       <c r="O5">
-        <v>3.570377813953542</v>
+        <v>2.184400577818195</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.189497045579714</v>
+        <v>1.170197808344938</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2296006752208015</v>
+        <v>0.1095935071542584</v>
       </c>
       <c r="E6">
-        <v>0.2471146865872775</v>
+        <v>0.1684941112506735</v>
       </c>
       <c r="F6">
-        <v>1.479671270933252</v>
+        <v>0.7459902831207827</v>
       </c>
       <c r="G6">
-        <v>0.002455906917604683</v>
+        <v>0.0007966849681173327</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3222591672293831</v>
+        <v>0.2700512541123459</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2551500734601859</v>
+        <v>0.5086726845623701</v>
       </c>
       <c r="M6">
-        <v>0.2871392929925989</v>
+        <v>0.3765618210490516</v>
       </c>
       <c r="N6">
-        <v>1.867597694229786</v>
+        <v>1.267462734130362</v>
       </c>
       <c r="O6">
-        <v>3.569738015729371</v>
+        <v>2.176468580699236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.202650407731539</v>
+        <v>1.220842077486395</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2295614743142522</v>
+        <v>0.1099015092142963</v>
       </c>
       <c r="E7">
-        <v>0.2476159428815983</v>
+        <v>0.170341868008304</v>
       </c>
       <c r="F7">
-        <v>1.478964163612744</v>
+        <v>0.7585478660224965</v>
       </c>
       <c r="G7">
-        <v>0.002454859960902218</v>
+        <v>0.0007952152266704908</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3235531226946051</v>
+        <v>0.2743023715068134</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2626641111977648</v>
+        <v>0.5340218515123354</v>
       </c>
       <c r="M7">
-        <v>0.292115556137496</v>
+        <v>0.3943999242167919</v>
       </c>
       <c r="N7">
-        <v>1.865204342820618</v>
+        <v>1.265160852350064</v>
       </c>
       <c r="O7">
-        <v>3.574380046961267</v>
+        <v>2.231914171513807</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.261600382070725</v>
+        <v>1.445671702882578</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2294394495811716</v>
+        <v>0.111337140651937</v>
       </c>
       <c r="E8">
-        <v>0.2498649939759083</v>
+        <v>0.1785513296164218</v>
       </c>
       <c r="F8">
-        <v>1.477732299063987</v>
+        <v>0.817477973854281</v>
       </c>
       <c r="G8">
-        <v>0.002450487250014621</v>
+        <v>0.0007889565400732726</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3292944976780134</v>
+        <v>0.2931093906160314</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2958668906911015</v>
+        <v>0.6460126027374997</v>
       </c>
       <c r="M8">
-        <v>0.3142425548969427</v>
+        <v>0.4733875186148637</v>
       </c>
       <c r="N8">
-        <v>1.856145871010455</v>
+        <v>1.257847828155519</v>
       </c>
       <c r="O8">
-        <v>3.599844045975232</v>
+        <v>2.486767813047493</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.380403390024441</v>
+        <v>1.892650283749134</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2293816863194813</v>
+        <v>0.1144513173038</v>
       </c>
       <c r="E9">
-        <v>0.2544043765283241</v>
+        <v>0.1948716187101169</v>
       </c>
       <c r="F9">
-        <v>1.482109933214744</v>
+        <v>0.9473744920941982</v>
       </c>
       <c r="G9">
-        <v>0.002442795344279138</v>
+        <v>0.0007774639891027224</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3406575440912363</v>
+        <v>0.3301934813677789</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3611130683476063</v>
+        <v>0.8665914897864013</v>
       </c>
       <c r="M9">
-        <v>0.3582178016231126</v>
+        <v>0.6296538234459632</v>
       </c>
       <c r="N9">
-        <v>1.843756052973376</v>
+        <v>1.254314044064941</v>
       </c>
       <c r="O9">
-        <v>3.667710197710733</v>
+        <v>3.028951572489262</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.469601087480441</v>
+        <v>2.226069546852045</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2294485358393601</v>
+        <v>0.116948442642574</v>
       </c>
       <c r="E10">
-        <v>0.2578146335845872</v>
+        <v>0.2070228928015894</v>
       </c>
       <c r="F10">
-        <v>1.489476958424262</v>
+        <v>1.053283493485097</v>
       </c>
       <c r="G10">
-        <v>0.002437676899234479</v>
+        <v>0.0007694606562872986</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3490627681119207</v>
+        <v>0.3576029244081127</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4091150060211817</v>
+        <v>1.029775037762334</v>
       </c>
       <c r="M10">
-        <v>0.3908700307144102</v>
+        <v>0.7457187470024067</v>
       </c>
       <c r="N10">
-        <v>1.837906484938273</v>
+        <v>1.258897708339575</v>
       </c>
       <c r="O10">
-        <v>3.728549096719632</v>
+        <v>3.459122756044962</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.510587200653163</v>
+        <v>2.379158681936872</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2295023936507903</v>
+        <v>0.1181369190390562</v>
       </c>
       <c r="E11">
-        <v>0.2593816595475147</v>
+        <v>0.2125925556900867</v>
       </c>
       <c r="F11">
-        <v>1.493731939622222</v>
+        <v>1.104155679714751</v>
       </c>
       <c r="G11">
-        <v>0.002435462912645148</v>
+        <v>0.0007659068338733474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3528974780366525</v>
+        <v>0.370118251148142</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4309632447030936</v>
+        <v>1.104387342445563</v>
       </c>
       <c r="M11">
-        <v>0.4057965412202265</v>
+        <v>0.7988945836403403</v>
       </c>
       <c r="N11">
-        <v>1.83594717148172</v>
+        <v>1.262682762197898</v>
       </c>
       <c r="O11">
-        <v>3.758620678027341</v>
+        <v>3.663170742679313</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.526165626217733</v>
+        <v>2.43736103274091</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2295261355085252</v>
+        <v>0.1185951965764325</v>
       </c>
       <c r="E12">
-        <v>0.2599772396323452</v>
+        <v>0.2147083151894051</v>
       </c>
       <c r="F12">
-        <v>1.495473266207881</v>
+        <v>1.123844622356813</v>
       </c>
       <c r="G12">
-        <v>0.002434640898434953</v>
+        <v>0.0007645728422478694</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3543510504292726</v>
+        <v>0.374865134485546</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4392379326511104</v>
+        <v>1.132707370891694</v>
       </c>
       <c r="M12">
-        <v>0.4114590175959094</v>
+        <v>0.819094200578526</v>
       </c>
       <c r="N12">
-        <v>1.835305744784677</v>
+        <v>1.264373093704492</v>
       </c>
       <c r="O12">
-        <v>3.770353132234504</v>
+        <v>3.741770948122962</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.5228079759558</v>
+        <v>2.424815390671085</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2295208738037999</v>
+        <v>0.1184961206690645</v>
       </c>
       <c r="E13">
-        <v>0.2598488749611363</v>
+        <v>0.2142523421316938</v>
       </c>
       <c r="F13">
-        <v>1.495092454293129</v>
+        <v>1.119584737930779</v>
       </c>
       <c r="G13">
-        <v>0.002434817206939866</v>
+        <v>0.0007648596303488148</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3540379354535474</v>
+        <v>0.3738424545839649</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4374557832782671</v>
+        <v>1.12660501883326</v>
       </c>
       <c r="M13">
-        <v>0.4102390569003944</v>
+        <v>0.8147408975267751</v>
       </c>
       <c r="N13">
-        <v>1.835439422673545</v>
+        <v>1.263997410683743</v>
       </c>
       <c r="O13">
-        <v>3.767810986323354</v>
+        <v>3.724781587752545</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.511867693112322</v>
+        <v>2.383942234049925</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2295042799681042</v>
+        <v>0.1181744527291215</v>
       </c>
       <c r="E14">
-        <v>0.2594306149837706</v>
+        <v>0.212766483426833</v>
       </c>
       <c r="F14">
-        <v>1.493872592438223</v>
+        <v>1.105766763413399</v>
       </c>
       <c r="G14">
-        <v>0.002435394957455548</v>
+        <v>0.0007657968542344857</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3530170360889144</v>
+        <v>0.3705086221941798</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4316439862677726</v>
+        <v>1.106715856920033</v>
       </c>
       <c r="M14">
-        <v>0.4062621954938237</v>
+        <v>0.8005551008165313</v>
       </c>
       <c r="N14">
-        <v>1.835892388437486</v>
+        <v>1.262816600863445</v>
       </c>
       <c r="O14">
-        <v>3.759578996906555</v>
+        <v>3.669609761587765</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.505173960340471</v>
+        <v>2.358937153292516</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2294945509237678</v>
+        <v>0.1179785148455181</v>
       </c>
       <c r="E15">
-        <v>0.2591747005616796</v>
+        <v>0.2118572375977905</v>
       </c>
       <c r="F15">
-        <v>1.493142332391216</v>
+        <v>1.09735933068653</v>
       </c>
       <c r="G15">
-        <v>0.00243575097622882</v>
+        <v>0.0007663724401455025</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3523918902736796</v>
+        <v>0.3684675721209203</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4280842393029332</v>
+        <v>1.094542119016666</v>
       </c>
       <c r="M15">
-        <v>0.4038275621702709</v>
+        <v>0.7918743804608894</v>
       </c>
       <c r="N15">
-        <v>1.836182922969158</v>
+        <v>1.262127178872987</v>
       </c>
       <c r="O15">
-        <v>3.754581609754496</v>
+        <v>3.635992866560116</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.466930703285243</v>
+        <v>2.216095573851987</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2294454858180259</v>
+        <v>0.1168718854333903</v>
       </c>
       <c r="E16">
-        <v>0.2577125340168394</v>
+        <v>0.2066597974323798</v>
       </c>
       <c r="F16">
-        <v>1.489217079140218</v>
+        <v>1.050016210803193</v>
       </c>
       <c r="G16">
-        <v>0.00243782388439306</v>
+        <v>0.0007696945945110696</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3488123719831862</v>
+        <v>0.3567860304547708</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4076873710119457</v>
+        <v>1.024907533616613</v>
       </c>
       <c r="M16">
-        <v>0.3898959845494829</v>
+        <v>0.7422519111178758</v>
       </c>
       <c r="N16">
-        <v>1.838048617836719</v>
+        <v>1.258685608264258</v>
       </c>
       <c r="O16">
-        <v>3.726632098235427</v>
+        <v>3.445966805479998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.443573886362287</v>
+        <v>2.128848095277647</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2294213738522224</v>
+        <v>0.1162069085631749</v>
       </c>
       <c r="E17">
-        <v>0.2568195063665399</v>
+        <v>0.203482498534207</v>
       </c>
       <c r="F17">
-        <v>1.487040596113701</v>
+        <v>1.021688354613389</v>
       </c>
       <c r="G17">
-        <v>0.002439124795265297</v>
+        <v>0.0007717543868650534</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3466191977916111</v>
+        <v>0.3496323254211973</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3951772634533768</v>
+        <v>0.9822939228361065</v>
       </c>
       <c r="M17">
-        <v>0.3813678254535731</v>
+        <v>0.7119128219265605</v>
       </c>
       <c r="N17">
-        <v>1.839372607743911</v>
+        <v>1.257018388134611</v>
       </c>
       <c r="O17">
-        <v>3.710099924547904</v>
+        <v>3.33162221262063</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.430178281068208</v>
+        <v>2.078797082524716</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2294097137534017</v>
+        <v>0.1158293296037343</v>
       </c>
       <c r="E18">
-        <v>0.2563073410321905</v>
+        <v>0.2016589108351248</v>
       </c>
       <c r="F18">
-        <v>1.48587379318559</v>
+        <v>1.00564605375736</v>
       </c>
       <c r="G18">
-        <v>0.002439883819441681</v>
+        <v>0.0007729473548686173</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3453587986622608</v>
+        <v>0.3455220322675672</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3879829306656859</v>
+        <v>0.9578186578437453</v>
       </c>
       <c r="M18">
-        <v>0.3764695312101622</v>
+        <v>0.6944975246812319</v>
       </c>
       <c r="N18">
-        <v>1.840200199735762</v>
+        <v>1.256218651024938</v>
       </c>
       <c r="O18">
-        <v>3.700816516207396</v>
+        <v>3.266632859321163</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.425649423427956</v>
+        <v>2.061872444631888</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2294061459048926</v>
+        <v>0.1157023099957613</v>
       </c>
       <c r="E19">
-        <v>0.2561341871891258</v>
+        <v>0.2010421297770613</v>
       </c>
       <c r="F19">
-        <v>1.485493338308174</v>
+        <v>1.000256446021524</v>
       </c>
       <c r="G19">
-        <v>0.002440142664883469</v>
+        <v>0.0007733527083791899</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.344932235224114</v>
+        <v>0.3441310758216147</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3855472653812342</v>
+        <v>0.9495374261503002</v>
       </c>
       <c r="M19">
-        <v>0.3748122446456037</v>
+        <v>0.6886067491084518</v>
       </c>
       <c r="N19">
-        <v>1.840491767066908</v>
+        <v>1.255974847761976</v>
       </c>
       <c r="O19">
-        <v>3.697712021341374</v>
+        <v>3.244758538466385</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.446056270048871</v>
+        <v>2.138121944713305</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2294237122237739</v>
+        <v>0.1162771849430015</v>
       </c>
       <c r="E20">
-        <v>0.25691441798919</v>
+        <v>0.2038203185393748</v>
       </c>
       <c r="F20">
-        <v>1.487263483037083</v>
+        <v>1.024677650301271</v>
       </c>
       <c r="G20">
-        <v>0.002438985196666802</v>
+        <v>0.0007715342718692953</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3468525566545821</v>
+        <v>0.3503933954320217</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3965088701958166</v>
+        <v>0.986826517081397</v>
       </c>
       <c r="M20">
-        <v>0.3822749532715761</v>
+        <v>0.7151387915842449</v>
       </c>
       <c r="N20">
-        <v>1.839224831729766</v>
+        <v>1.257179301191414</v>
       </c>
       <c r="O20">
-        <v>3.71183646464732</v>
+        <v>3.343712900336556</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.515079556895216</v>
+        <v>2.395941177859186</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2295090633364367</v>
+        <v>0.1182687052810607</v>
       </c>
       <c r="E21">
-        <v>0.2595534094634573</v>
+        <v>0.2132027303856212</v>
       </c>
       <c r="F21">
-        <v>1.494227364842757</v>
+        <v>1.109813597024896</v>
       </c>
       <c r="G21">
-        <v>0.002435224814378677</v>
+        <v>0.0007655212557597725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3533168607912245</v>
+        <v>0.3714876355430903</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4333510222495534</v>
+        <v>1.11255589922979</v>
       </c>
       <c r="M21">
-        <v>0.4074300238841388</v>
+        <v>0.8047200271100294</v>
       </c>
       <c r="N21">
-        <v>1.835756616234193</v>
+        <v>1.26315635371067</v>
       </c>
       <c r="O21">
-        <v>3.761987564540732</v>
+        <v>3.68577783967703</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.560527122756127</v>
+        <v>2.56580062726772</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2295843432172084</v>
+        <v>0.1196186154095606</v>
       </c>
       <c r="E22">
-        <v>0.2612908235117324</v>
+        <v>0.2193737834839666</v>
       </c>
       <c r="F22">
-        <v>1.499536789636963</v>
+        <v>1.167950174835795</v>
       </c>
       <c r="G22">
-        <v>0.00243286259396641</v>
+        <v>0.0007616595873175375</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3575500454438583</v>
+        <v>0.3853187520511625</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4574364704004097</v>
+        <v>1.195117911130438</v>
       </c>
       <c r="M22">
-        <v>0.4239292074965348</v>
+        <v>0.8636388781633499</v>
       </c>
       <c r="N22">
-        <v>1.834075690064466</v>
+        <v>1.268567222445824</v>
       </c>
       <c r="O22">
-        <v>3.796775360180447</v>
+        <v>3.917166856728045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.536240418841089</v>
+        <v>2.475009419364312</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2295423889595121</v>
+        <v>0.1188934727426876</v>
       </c>
       <c r="E23">
-        <v>0.2603623969892048</v>
+        <v>0.2160763728308801</v>
       </c>
       <c r="F23">
-        <v>1.496633645210764</v>
+        <v>1.136680119240907</v>
       </c>
       <c r="G23">
-        <v>0.002434114651487641</v>
+        <v>0.0007637146518590861</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3552899969467376</v>
+        <v>0.3779323954837821</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4445811335193355</v>
+        <v>1.151013216412537</v>
       </c>
       <c r="M23">
-        <v>0.4151180077849119</v>
+        <v>0.8321555952781097</v>
       </c>
       <c r="N23">
-        <v>1.834919358761681</v>
+        <v>1.265537301690998</v>
       </c>
       <c r="O23">
-        <v>3.778024271301376</v>
+        <v>3.792908191154027</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44493388294228</v>
+        <v>2.133928900770002</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2294226481856221</v>
+        <v>0.116245398324061</v>
       </c>
       <c r="E24">
-        <v>0.256871504552219</v>
+        <v>0.2036675805548356</v>
       </c>
       <c r="F24">
-        <v>1.487162452694434</v>
+        <v>1.023325433252381</v>
       </c>
       <c r="G24">
-        <v>0.002439048274495159</v>
+        <v>0.0007716337585111614</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3467470535890271</v>
+        <v>0.3500493080614433</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3959068573095408</v>
+        <v>0.9847772577319631</v>
       </c>
       <c r="M24">
-        <v>0.3818648262488082</v>
+        <v>0.7136802471074333</v>
       </c>
       <c r="N24">
-        <v>1.839291434364014</v>
+        <v>1.25710605880613</v>
       </c>
       <c r="O24">
-        <v>3.711050685999538</v>
+        <v>3.338244377491122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.347925252702538</v>
+        <v>1.770949085055406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2293780219623507</v>
+        <v>0.1135742750508655</v>
       </c>
       <c r="E25">
-        <v>0.2531629024101001</v>
+        <v>0.1904303783476777</v>
       </c>
       <c r="F25">
-        <v>1.480197426433776</v>
+        <v>0.9105276143158818</v>
       </c>
       <c r="G25">
-        <v>0.00244478224975839</v>
+        <v>0.0007804929985346238</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.337573079700654</v>
+        <v>0.3201356644285056</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3434495032098255</v>
+        <v>0.8067630523116804</v>
       </c>
       <c r="M25">
-        <v>0.3462600856176365</v>
+        <v>0.5871913615043027</v>
       </c>
       <c r="N25">
-        <v>1.846534907831369</v>
+        <v>1.254054306438675</v>
       </c>
       <c r="O25">
-        <v>3.647426157327487</v>
+        <v>2.877145226621508</v>
       </c>
     </row>
   </sheetData>
